--- a/data_intermediate/diseasetrait_naming_conversion.xlsx
+++ b/data_intermediate/diseasetrait_naming_conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karinemoussa/Documents/DrLiu_Lab/Shiny_Apps/xci-app-1/data_intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83249736-209A-6E46-AF6F-172706744DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D3B77-0F37-DA43-BE6C-5DB9ECDAF0F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="-19900" windowWidth="31680" windowHeight="15860" xr2:uid="{CD089294-1F05-E948-8928-BB4B549864DB}"/>
+    <workbookView xWindow="-200" yWindow="-19900" windowWidth="31680" windowHeight="15860" activeTab="1" xr2:uid="{CD089294-1F05-E948-8928-BB4B549864DB}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBIO_list" sheetId="1" r:id="rId1"/>
@@ -9765,7 +9765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9412DD1-8B46-F046-8E59-DD463C0416FE}">
   <dimension ref="A1:D320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
@@ -11551,12 +11551,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAB156A-F1D2-EC44-883B-91991D29CBD6}">
   <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I262" sqref="I262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data_intermediate/diseasetrait_naming_conversion.xlsx
+++ b/data_intermediate/diseasetrait_naming_conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karinemoussa/Documents/DrLiu_Lab/Shiny_Apps/xci-app-1/data_intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054D3B77-0F37-DA43-BE6C-5DB9ECDAF0F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD4D9B2-C6F7-8644-B133-E85411474913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="-19900" windowWidth="31680" windowHeight="15860" activeTab="1" xr2:uid="{CD089294-1F05-E948-8928-BB4B549864DB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{CD089294-1F05-E948-8928-BB4B549864DB}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBIO_list" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="3111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="3112">
   <si>
     <t>DISEASE/TRAIT</t>
   </si>
@@ -9375,6 +9375,9 @@
   </si>
   <si>
     <t>Alcohol dependence, Depression and alcohol dependence</t>
+  </si>
+  <si>
+    <t>alopecia, alopecia areata</t>
   </si>
 </sst>
 </file>
@@ -9765,8 +9768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9412DD1-8B46-F046-8E59-DD463C0416FE}">
   <dimension ref="A1:D320"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9851,51 +9854,95 @@
       <c r="A8" t="s">
         <v>2930</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2929</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3099</v>
       </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2924</v>
       </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3098</v>
       </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3111</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2964</v>
       </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2998</v>
       </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2812</v>
       </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2907</v>
       </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2980</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -11264,82 +11311,91 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>3044</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>2927</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>2831</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>2878</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>2887</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>2905</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>2833</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2835</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>3058</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2821</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>2820</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>2990</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>2926</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B287" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>3061</v>
       </c>
@@ -11551,8 +11607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAB156A-F1D2-EC44-883B-91991D29CBD6}">
   <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I262" sqref="I262"/>
+    <sheetView topLeftCell="A225" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11643,6 +11699,9 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>2980</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>93</v>
       </c>
@@ -11919,6 +11978,9 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2929</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>189</v>
       </c>
@@ -12723,82 +12785,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B225" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B226" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B235" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B236" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B237" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>2926</v>
+      </c>
       <c r="B238" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B239" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B240" s="1" t="s">
         <v>208</v>
       </c>
@@ -12999,12 +13064,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC87240-39B2-2D45-960E-6784B043F1CF}">
   <dimension ref="A1:B436"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+    <sheetView topLeftCell="A248" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13090,86 +13156,92 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3098</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>3098</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>568</v>
       </c>
@@ -14333,6 +14405,9 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>2926</v>
+      </c>
       <c r="B261" s="1" t="s">
         <v>294</v>
       </c>
@@ -14967,82 +15042,85 @@
         <v>694</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B385" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B386" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B387" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B388" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>2907</v>
+      </c>
       <c r="B389" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B390" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B391" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B392" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B393" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B394" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B395" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B396" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B397" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B398" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B399" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B400" s="1" t="s">
         <v>701</v>
       </c>
@@ -15240,8 +15318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A27DD5-9C45-4540-ACA5-15A282443161}">
   <dimension ref="A1:B2533"/>
   <sheetViews>
-    <sheetView topLeftCell="A1119" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1133" sqref="A1133"/>
+    <sheetView topLeftCell="A1476" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1489" sqref="B1489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15656,82 +15734,88 @@
         <v>900</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>3098</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>3098</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>911</v>
       </c>
@@ -15976,82 +16060,85 @@
         <v>947</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>2980</v>
+      </c>
       <c r="B152" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
         <v>2700</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
         <v>468</v>
       </c>
@@ -16859,82 +16946,85 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B321" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B322" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B323" s="1" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B324" s="1" t="s">
         <v>2616</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>2980</v>
+      </c>
       <c r="B325" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B326" s="1" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B327" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B328" s="1" t="s">
         <v>2302</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B329" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B330" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B331" s="1" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B332" s="1" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B333" s="1" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B334" s="1" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B335" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B336" s="1" t="s">
         <v>1078</v>
       </c>
@@ -22714,82 +22804,85 @@
         <v>432</v>
       </c>
     </row>
-    <row r="1489" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1489" t="s">
+        <v>2926</v>
+      </c>
       <c r="B1489" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="1490" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1490" s="1" t="s">
         <v>1966</v>
       </c>
     </row>
-    <row r="1491" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1491" s="1" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="1492" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1492" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="1493" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1493" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="1494" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1494" s="1" t="s">
         <v>1968</v>
       </c>
     </row>
-    <row r="1495" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1495" s="1" t="s">
         <v>1970</v>
       </c>
     </row>
-    <row r="1496" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1496" s="1" t="s">
         <v>1969</v>
       </c>
     </row>
-    <row r="1497" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1497" s="1" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1498" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1498" s="1" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="1499" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1499" s="1" t="s">
         <v>1971</v>
       </c>
     </row>
-    <row r="1500" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1500" s="1" t="s">
         <v>2794</v>
       </c>
     </row>
-    <row r="1501" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1501" s="1" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="1502" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1502" s="1" t="s">
         <v>1975</v>
       </c>
     </row>
-    <row r="1503" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1503" s="1" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="1504" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1504" s="1" t="s">
         <v>1977</v>
       </c>
@@ -26732,82 +26825,85 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="2289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2289" s="1" t="s">
         <v>2631</v>
       </c>
     </row>
-    <row r="2290" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2290" s="1" t="s">
         <v>2632</v>
       </c>
     </row>
-    <row r="2291" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2291" s="1" t="s">
         <v>2633</v>
       </c>
     </row>
-    <row r="2292" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2292" s="1" t="s">
         <v>2634</v>
       </c>
     </row>
-    <row r="2293" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2293" s="1" t="s">
         <v>2635</v>
       </c>
     </row>
-    <row r="2294" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2294" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="2295" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2295" s="1" t="s">
         <v>2636</v>
       </c>
     </row>
-    <row r="2296" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2296" s="1" t="s">
         <v>2637</v>
       </c>
     </row>
-    <row r="2297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2297" s="1" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="2298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2298" s="1" t="s">
         <v>2638</v>
       </c>
     </row>
-    <row r="2299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2299" s="1" t="s">
         <v>2639</v>
       </c>
     </row>
-    <row r="2300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2300" s="1" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="2301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2301" s="1" t="s">
         <v>2640</v>
       </c>
     </row>
-    <row r="2302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2302" s="1" t="s">
         <v>2641</v>
       </c>
     </row>
-    <row r="2303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2303" t="s">
+        <v>2907</v>
+      </c>
       <c r="B2303" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="2304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2304" s="1" t="s">
         <v>2642</v>
       </c>

--- a/data_intermediate/diseasetrait_naming_conversion.xlsx
+++ b/data_intermediate/diseasetrait_naming_conversion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karinemoussa/Documents/DrLiu_Lab/Shiny_Apps/xci-app-1/data_intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD4D9B2-C6F7-8644-B133-E85411474913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C330967-2715-3746-8B0E-E72029B7D540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{CD089294-1F05-E948-8928-BB4B549864DB}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="3112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="3138">
   <si>
     <t>DISEASE/TRAIT</t>
   </si>
@@ -9374,10 +9374,88 @@
     <t>hepatitis b, hepatitis b virus</t>
   </si>
   <si>
-    <t>Alcohol dependence, Depression and alcohol dependence</t>
-  </si>
-  <si>
-    <t>alopecia, alopecia areata</t>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>cerebral palsy, spastic quadriplegic, 1; cerebral palsy, spastic quadriplegic, 2</t>
+  </si>
+  <si>
+    <t>bronchiectasis with or without elevated sweat chloride 1; bronchiectasis with or without elevated sweat chloride 2; bronchiectasis with or without elevated sweat chloride 3</t>
+  </si>
+  <si>
+    <t>Alcohol dependence; Depression and alcohol dependence</t>
+  </si>
+  <si>
+    <t>alopecia; alopecia areata</t>
+  </si>
+  <si>
+    <t>alopeci;  alopecia areata</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>diabetes complications; diabetes, gestational</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>glaucoma; glaucoma, open-angle</t>
+  </si>
+  <si>
+    <t>coronary artery disease; coronary disease</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV-1 control; </t>
+  </si>
+  <si>
+    <t>hyperthyroidism, familial gestational; hyperthyroidism, nonautoimmune</t>
+  </si>
+  <si>
+    <t>********</t>
+  </si>
+  <si>
+    <t>*********</t>
+  </si>
+  <si>
+    <t>iron deficiency anemia; anemia, iron-deficiency</t>
+  </si>
+  <si>
+    <t>iron deficiency anemia; iron-refractory iron deficiency anemia</t>
+  </si>
+  <si>
+    <t>nephrolithiasis; nephrolithiasis, x-linked recessive, with renal failure</t>
+  </si>
+  <si>
+    <t>cirrhosis, familial; north american indian childhood cirrhosis</t>
+  </si>
+  <si>
+    <t>platelet disorder</t>
+  </si>
+  <si>
+    <t>macular degeneration; wet macular degeneration</t>
+  </si>
+  <si>
+    <t>**********</t>
+  </si>
+  <si>
+    <t>***********</t>
+  </si>
+  <si>
+    <t>glomerulonephritis, iga; glomerulonephritis, membranous</t>
+  </si>
+  <si>
+    <t>osteoporosis; osteoporosis-pseudoglioma syndrome</t>
   </si>
 </sst>
 </file>
@@ -9416,7 +9494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9426,6 +9504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9442,7 +9526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9452,6 +9536,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9766,10 +9852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9412DD1-8B46-F046-8E59-DD463C0416FE}">
-  <dimension ref="A1:D320"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="144" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9841,7 +9927,7 @@
         <v>2940</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3110</v>
+        <v>3114</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>699</v>
@@ -9890,10 +9976,10 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>3111</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -9948,21 +10034,37 @@
       <c r="A18" t="s">
         <v>2896</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2997</v>
       </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3021</v>
       </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2830</v>
       </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -9982,328 +10084,829 @@
       <c r="A23" t="s">
         <v>459</v>
       </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3018</v>
       </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2901</v>
       </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2877</v>
       </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3011</v>
       </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3097</v>
       </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3102</v>
       </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2858</v>
       </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3057</v>
       </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2967</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2900</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3053</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3007</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2991</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2921</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2919</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3034</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2827</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2941</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2939</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3062</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="F43" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>3111</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2817</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2891</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3064</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2950</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2954</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5" t="s">
+        <v>3112</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3029</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="F50" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3030</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="F51" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2986</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="F52" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3042</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2849</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2848</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2988</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="F56" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2825</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="F57" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2945</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="F58" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2968</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="F59" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2883</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2963</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2971</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2923</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>3052</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="F64" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2876</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2974</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3006</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="F67" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2824</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2898</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="F69" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2895</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2862</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>3119</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2890</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2978</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="F73" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>3017</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>3016</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="F75" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2970</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="F76" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>3013</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="F77" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>3024</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="F79" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3095</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>3002</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="F81" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2944</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="F82" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3032</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="F83" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2966</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="4"/>
+      <c r="C84" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2981</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2826</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2874</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>469</v>
       </c>
@@ -10317,302 +10920,559 @@
         <v>469</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2933</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="4"/>
+      <c r="C90" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>3009</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2810</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2888</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2892</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2872</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2936</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2920</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>3023</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>3036</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>3069</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>3068</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>3087</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>3077</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>3088</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>3072</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>3076</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>3066</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>3085</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>3089</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3082</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>3067</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>3084</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>3081</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>3073</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>3079</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>3083</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>3070</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>3065</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>3078</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>3086</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3090</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>3074</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3071</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>3080</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>3075</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>2847</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>2840</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>2841</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>2838</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>3001</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>2851</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>2863</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="4"/>
+      <c r="C132" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2811</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="F133" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="4"/>
+      <c r="C134" s="5" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="4"/>
+      <c r="C135" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="F136" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>2999</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="F137" s="1" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>2931</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" s="4"/>
+      <c r="C138" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2886</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="F139" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2957</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="F140" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>2815</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" s="4"/>
+      <c r="C141" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>2813</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" s="4"/>
+      <c r="C142" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>2814</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>2816</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="F144" s="1" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>2808</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>2962</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="F146" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>2843</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="F147" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>3046</v>
       </c>
@@ -10621,8 +11481,11 @@
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F148" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>546</v>
       </c>
@@ -10636,77 +11499,157 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2965</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3045</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>2983</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2982</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>2960</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B155" s="5" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="5" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B156" s="4"/>
+      <c r="C156" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>2867</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="5" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>2953</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="5" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>2868</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B159" s="4"/>
+      <c r="C159" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>3126</v>
+      </c>
+      <c r="F159" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>3038</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B160" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="F160" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2844</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="F161" s="1" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2973</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B162" s="4"/>
+      <c r="C162" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>3127</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>3005</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="F163" s="1" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>3059</v>
       </c>
@@ -10716,102 +11659,222 @@
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2828</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>3014</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="F166" s="1" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>2910</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B167" s="4"/>
+      <c r="C167" s="5" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>3129</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>2989</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="F168" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>2842</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="F169" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>3000</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>2902</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="F171" s="1" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>3020</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="F172" s="1" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>2856</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B173" s="4"/>
+      <c r="C173" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2995</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="F174" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2822</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>3027</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>3028</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>2846</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B178" s="4"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>2836</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B179" s="4"/>
+      <c r="C179" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2909</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="4"/>
+      <c r="C180" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>2993</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B182" s="4"/>
+      <c r="C182" s="4" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D182" s="4"/>
+      <c r="F182" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2969</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B183" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F183" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>473</v>
       </c>
@@ -10824,43 +11887,102 @@
       <c r="D184" s="4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2899</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B185" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>3039</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B186" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="F186" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>2949</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="F187" s="1" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>3092</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>2875</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B189" s="4"/>
+      <c r="C189" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>3096</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="F190" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>3031</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="F191" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>2885</v>
       </c>
@@ -10873,18 +11995,27 @@
       <c r="D192" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F192" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>3033</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3047</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>357</v>
       </c>
@@ -10898,132 +12029,267 @@
         <v>357</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>3040</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B196" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>2938</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>2903</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2958</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="F199" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>2908</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>2946</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="F201" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2942</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="F202" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>3025</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="F203" s="1" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>3055</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B204" s="4"/>
+      <c r="C204" s="5" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2897</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B205" s="4"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="4"/>
+      <c r="F205" s="1" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>2845</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="F206" s="1" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>2834</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="F207" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2839</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="F208" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>2956</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="F209" s="1" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B210" s="4"/>
+      <c r="C210" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>2904</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="F211" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>3060</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="F212" s="1" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B213" s="4"/>
+      <c r="C213" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>3137</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2837</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D214" s="1"/>
+      <c r="F214" s="1" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2977</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B215" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>2955</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>2937</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>2829</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>2948</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2914</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>374</v>
       </c>
@@ -11037,60 +12303,93 @@
         <v>374</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>2869</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>2884</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2935</v>
       </c>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>2818</v>
       </c>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>3048</v>
       </c>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>2879</v>
       </c>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2932</v>
       </c>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2880</v>
       </c>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2809</v>
       </c>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2850</v>
       </c>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>2911</v>
       </c>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -11137,82 +12436,88 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2959</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2925</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>3015</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>2979</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2906</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2860</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>3008</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2985</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2873</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2823</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>3035</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2972</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>3054</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2854</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2853</v>
       </c>
@@ -11254,8 +12559,12 @@
       <c r="B263" s="4" t="s">
         <v>2976</v>
       </c>
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+      <c r="C263" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -11320,6 +12629,9 @@
       <c r="A274" t="s">
         <v>2927</v>
       </c>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -11345,6 +12657,9 @@
       <c r="A279" t="s">
         <v>2905</v>
       </c>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -11497,11 +12812,21 @@
       <c r="A304" t="s">
         <v>2975</v>
       </c>
+      <c r="B304" s="4"/>
+      <c r="C304" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>3117</v>
+      </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>3004</v>
       </c>
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -11547,7 +12872,9 @@
       <c r="A313" t="s">
         <v>2917</v>
       </c>
-      <c r="B313" s="1"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -11569,6 +12896,9 @@
       <c r="A317" t="s">
         <v>2996</v>
       </c>
+      <c r="B317" s="4"/>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
@@ -11595,11 +12925,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D320" xr:uid="{DE0F8EE3-4B37-004C-B87B-AC6FD9B79C9D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A320">
     <sortCondition ref="A2:A320"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -11607,8 +12937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAB156A-F1D2-EC44-883B-91991D29CBD6}">
   <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView topLeftCell="A225" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+    <sheetView topLeftCell="A249" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11712,6 +13042,9 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2896</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>152</v>
       </c>
@@ -11760,6 +13093,9 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2899</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>246</v>
       </c>
@@ -11775,6 +13111,9 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3083</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>264</v>
       </c>
@@ -11789,82 +13128,88 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2969</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2945</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
@@ -11900,6 +13245,9 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>2808</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>143</v>
       </c>
@@ -12245,6 +13593,9 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>2960</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>119</v>
       </c>
@@ -12370,87 +13721,93 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>3039</v>
+      </c>
       <c r="B150" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B157" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>3038</v>
+      </c>
       <c r="B161" s="1" t="s">
         <v>76</v>
       </c>
@@ -12479,6 +13836,9 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>3040</v>
+      </c>
       <c r="B166" s="1" t="s">
         <v>228</v>
       </c>
@@ -12841,6 +14201,9 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>2898</v>
+      </c>
       <c r="B236" s="1" t="s">
         <v>241</v>
       </c>
@@ -12868,82 +14231,85 @@
         <v>208</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>2977</v>
+      </c>
       <c r="B241" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B245" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B253" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B254" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B255" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
         <v>183</v>
       </c>
@@ -12999,6 +14365,9 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>2824</v>
+      </c>
       <c r="B264" s="1" t="s">
         <v>3</v>
       </c>
@@ -13064,8 +14433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC87240-39B2-2D45-960E-6784B043F1CF}">
   <dimension ref="A1:B436"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B261" sqref="B261"/>
+    <sheetView topLeftCell="A407" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13202,6 +14571,9 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>2910</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>596</v>
       </c>
@@ -13257,6 +14629,9 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2815</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>695</v>
       </c>
@@ -13267,6 +14642,9 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>2976</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>358</v>
       </c>
@@ -13295,6 +14673,9 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>459</v>
       </c>
@@ -13329,322 +14710,349 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>2899</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3132</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2919</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2817</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2969</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2975</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>2808</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>2808</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>2974</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>320</v>
       </c>
@@ -13675,11 +15083,17 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>2966</v>
+      </c>
       <c r="B118" s="1" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>2862</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>671</v>
       </c>
@@ -13701,6 +15115,9 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>2863</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>478</v>
       </c>
@@ -13711,6 +15128,9 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>2890</v>
+      </c>
       <c r="B124" s="1" t="s">
         <v>532</v>
       </c>
@@ -13741,6 +15161,9 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>401</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>401</v>
       </c>
@@ -13799,6 +15222,9 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>696</v>
+      </c>
       <c r="B141" s="1" t="s">
         <v>696</v>
       </c>
@@ -13898,82 +15324,100 @@
         <v>484</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>2848</v>
+      </c>
       <c r="B161" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="B165" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="B166" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>3055</v>
+      </c>
       <c r="B169" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>3055</v>
+      </c>
       <c r="B170" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="B175" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
         <v>367</v>
       </c>
@@ -14144,242 +15588,260 @@
         <v>656</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B209" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="B212" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B213" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B214" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>2868</v>
+      </c>
       <c r="B217" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B218" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B219" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B220" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B221" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B222" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B223" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>2973</v>
+      </c>
       <c r="B224" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B225" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B226" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>2950</v>
+      </c>
       <c r="B234" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B235" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B236" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>2910</v>
+      </c>
       <c r="B237" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B238" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B239" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B240" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B241" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B245" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B253" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>2836</v>
+      </c>
       <c r="B254" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B255" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
         <v>424</v>
       </c>
@@ -14395,6 +15857,9 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>2981</v>
+      </c>
       <c r="B259" s="1" t="s">
         <v>304</v>
       </c>
@@ -14418,6 +15883,9 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>291</v>
+      </c>
       <c r="B263" s="1" t="s">
         <v>291</v>
       </c>
@@ -14471,11 +15939,17 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>2875</v>
+      </c>
       <c r="B273" s="1" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>3095</v>
+      </c>
       <c r="B274" s="1" t="s">
         <v>350</v>
       </c>
@@ -14572,6 +16046,9 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>2813</v>
+      </c>
       <c r="B292" s="1" t="s">
         <v>370</v>
       </c>
@@ -14612,6 +16089,9 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>2855</v>
+      </c>
       <c r="B300" s="1" t="s">
         <v>279</v>
       </c>
@@ -14682,11 +16162,17 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="B314" s="1" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>561</v>
+      </c>
       <c r="B315" s="1" t="s">
         <v>561</v>
       </c>
@@ -14879,82 +16365,85 @@
         <v>504</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B353" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B354" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B355" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B356" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B357" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B358" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B359" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B360" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B361" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B362" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B363" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B364" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B365" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B366" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>2931</v>
+      </c>
       <c r="B367" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B368" s="1" t="s">
         <v>517</v>
       </c>
@@ -15236,6 +16725,9 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>2824</v>
+      </c>
       <c r="B423" s="1" t="s">
         <v>354</v>
       </c>
@@ -15288,22 +16780,25 @@
         <v>436</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>291</v>
+      </c>
       <c r="B433" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B434" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B436" s="1" t="s">
         <v>591</v>
       </c>
@@ -15318,8 +16813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A27DD5-9C45-4540-ACA5-15A282443161}">
   <dimension ref="A1:B2533"/>
   <sheetViews>
-    <sheetView topLeftCell="A1476" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1489" sqref="B1489"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15740,6 +17235,9 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2931</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>732</v>
       </c>
@@ -16134,6 +17632,9 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>2896</v>
+      </c>
       <c r="B159" s="1" t="s">
         <v>736</v>
       </c>
@@ -16143,162 +17644,168 @@
         <v>468</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
         <v>2672</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>2815</v>
+      </c>
       <c r="B174" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B181" s="1" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B182" s="1" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>2976</v>
+      </c>
       <c r="B187" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
         <v>2623</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
         <v>2648</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
         <v>583</v>
       </c>
@@ -16372,6 +17879,9 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="B206" s="1" t="s">
         <v>459</v>
       </c>
@@ -16546,402 +18056,426 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B241" s="1" t="s">
         <v>2549</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
         <v>2696</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B245" s="1" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B253" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B254" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>2908</v>
+      </c>
       <c r="B255" s="1" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B257" s="1" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B258" s="1" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B260" s="1" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B261" s="1" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B262" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B263" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B264" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B265" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B266" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>2899</v>
+      </c>
       <c r="B267" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B268" s="1" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B269" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B270" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B271" s="1" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B272" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B273" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B275" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B276" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>2909</v>
+      </c>
       <c r="B277" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B278" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B279" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B280" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B281" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B282" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B283" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B284" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B285" s="1" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B286" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B287" s="1" t="s">
         <v>1972</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B288" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B289" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B290" s="1" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B291" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B292" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B293" s="1" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B294" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B295" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B296" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B297" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B298" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B299" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B300" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B301" s="1" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B302" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>2919</v>
+      </c>
       <c r="B303" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B304" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B305" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>2908</v>
+      </c>
       <c r="B306" s="1" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>2827</v>
+      </c>
       <c r="B307" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>2827</v>
+      </c>
       <c r="B308" s="1" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>2827</v>
+      </c>
       <c r="B309" s="1" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B310" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B311" s="1" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B312" s="1" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B313" s="1" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B314" s="1" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B315" s="1" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B316" s="1" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B317" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B318" s="1" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B319" s="1" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B320" s="1" t="s">
         <v>1067</v>
       </c>
@@ -16957,6 +18491,9 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>2876</v>
+      </c>
       <c r="B323" s="1" t="s">
         <v>1599</v>
       </c>
@@ -17005,6 +18542,9 @@
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>2977</v>
+      </c>
       <c r="B332" s="1" t="s">
         <v>1073</v>
       </c>
@@ -17109,482 +18649,665 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B353" s="1" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B354" s="1" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>2817</v>
+      </c>
       <c r="B355" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>2817</v>
+      </c>
       <c r="B356" s="1" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>2817</v>
+      </c>
       <c r="B357" s="1" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>2817</v>
+      </c>
       <c r="B358" s="1" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>2817</v>
+      </c>
       <c r="B359" s="1" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>2817</v>
+      </c>
       <c r="B360" s="1" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>2817</v>
+      </c>
       <c r="B361" s="1" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>2817</v>
+      </c>
       <c r="B362" s="1" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>2817</v>
+      </c>
       <c r="B363" s="1" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>2817</v>
+      </c>
       <c r="B364" s="1" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>2817</v>
+      </c>
       <c r="B365" s="1" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>2817</v>
+      </c>
       <c r="B366" s="1" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>2817</v>
+      </c>
       <c r="B367" s="1" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>2817</v>
+      </c>
       <c r="B368" s="1" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>2817</v>
+      </c>
       <c r="B369" s="1" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>2817</v>
+      </c>
       <c r="B370" s="1" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>2817</v>
+      </c>
       <c r="B371" s="1" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>2817</v>
+      </c>
       <c r="B372" s="1" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>2817</v>
+      </c>
       <c r="B373" s="1" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>2817</v>
+      </c>
       <c r="B374" s="1" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>2817</v>
+      </c>
       <c r="B375" s="1" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>2817</v>
+      </c>
       <c r="B376" s="1" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>2817</v>
+      </c>
       <c r="B377" s="1" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>2817</v>
+      </c>
       <c r="B378" s="1" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>2817</v>
+      </c>
       <c r="B379" s="1" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>2817</v>
+      </c>
       <c r="B380" s="1" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>2817</v>
+      </c>
       <c r="B381" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>2817</v>
+      </c>
       <c r="B382" s="1" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>2817</v>
+      </c>
       <c r="B383" s="1" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>2817</v>
+      </c>
       <c r="B384" s="1" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>2817</v>
+      </c>
       <c r="B385" s="1" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>2817</v>
+      </c>
       <c r="B386" s="1" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>2817</v>
+      </c>
       <c r="B387" s="1" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>2817</v>
+      </c>
       <c r="B388" s="1" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>2817</v>
+      </c>
       <c r="B389" s="1" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>2817</v>
+      </c>
       <c r="B390" s="1" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>2817</v>
+      </c>
       <c r="B391" s="1" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>2817</v>
+      </c>
       <c r="B392" s="1" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>2817</v>
+      </c>
       <c r="B393" s="1" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>2817</v>
+      </c>
       <c r="B394" s="1" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>2817</v>
+      </c>
       <c r="B395" s="1" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B396" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B397" s="1" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B398" s="1" t="s">
         <v>2317</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B399" s="1" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B400" s="1" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B401" s="1" t="s">
         <v>2168</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B402" s="1" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B403" s="1" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B404" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B405" s="1" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>1129</v>
+      </c>
       <c r="B406" s="1" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B407" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>2891</v>
+      </c>
       <c r="B408" s="1" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>2891</v>
+      </c>
       <c r="B409" s="1" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>2891</v>
+      </c>
       <c r="B410" s="1" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>2891</v>
+      </c>
       <c r="B411" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>2891</v>
+      </c>
       <c r="B412" s="1" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>2891</v>
+      </c>
       <c r="B413" s="1" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>2891</v>
+      </c>
       <c r="B414" s="1" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>2891</v>
+      </c>
       <c r="B415" s="1" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>2891</v>
+      </c>
       <c r="B416" s="1" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>2891</v>
+      </c>
       <c r="B417" s="1" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>2891</v>
+      </c>
       <c r="B418" s="1" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>2891</v>
+      </c>
       <c r="B419" s="1" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>2891</v>
+      </c>
       <c r="B420" s="1" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>2891</v>
+      </c>
       <c r="B421" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>2891</v>
+      </c>
       <c r="B422" s="1" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>2891</v>
+      </c>
       <c r="B423" s="1" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B424" s="1" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B425" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B426" s="1" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B427" s="1" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>2969</v>
+      </c>
       <c r="B428" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B429" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B430" s="1" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B431" s="1" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B432" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B433" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B434" s="1" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B435" s="1" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B436" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B437" s="1" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B438" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>2954</v>
+      </c>
       <c r="B439" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>2954</v>
+      </c>
       <c r="B440" s="1" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B441" s="1" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B442" s="1" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B443" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B444" s="1" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B445" s="1" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B446" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B447" s="1" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B448" s="1" t="s">
         <v>1175</v>
       </c>
@@ -17909,162 +19632,168 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B513" s="1" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B514" s="1" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B515" s="1" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B516" s="1" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>2846</v>
+      </c>
       <c r="B517" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B518" s="1" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B519" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B520" s="1" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B521" s="1" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B522" s="1" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B523" s="1" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B524" s="1" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B525" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B526" s="1" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B527" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B528" s="1" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B529" s="1" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B530" s="1" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>2975</v>
+      </c>
       <c r="B531" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B532" s="1" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B533" s="1" t="s">
         <v>2119</v>
       </c>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B534" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B535" s="1" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B536" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B537" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B538" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B539" s="1" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B540" s="1" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B541" s="1" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B542" s="1" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B543" s="1" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B544" s="1" t="s">
         <v>1282</v>
       </c>
@@ -18469,162 +20198,177 @@
         <v>581</v>
       </c>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>2808</v>
+      </c>
       <c r="B625" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>2808</v>
+      </c>
       <c r="B626" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>2808</v>
+      </c>
       <c r="B627" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>2808</v>
+      </c>
       <c r="B628" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B629" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B630" s="1" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B631" s="1" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B632" s="1" t="s">
         <v>2367</v>
       </c>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B633" s="1" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B634" s="1" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B635" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B636" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B637" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B638" s="1" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B639" s="1" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B640" s="1" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B641" s="1" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B642" s="1" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B643" s="1" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B644" s="1" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B645" s="1" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B646" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B647" s="1" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B648" s="1" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B649" s="1" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B650" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B651" s="1" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B652" s="1" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B653" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>2974</v>
+      </c>
       <c r="B654" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B655" s="1" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B656" s="1" t="s">
         <v>1254</v>
       </c>
@@ -19029,142 +20773,196 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B737" s="1" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B738" s="1" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B739" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B740" s="1" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B741" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>2966</v>
+      </c>
       <c r="B742" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B743" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B744" s="1" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B745" s="1" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B746" s="1" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B747" s="1" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>2862</v>
+      </c>
       <c r="B748" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>2862</v>
+      </c>
       <c r="B749" s="1" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>2862</v>
+      </c>
       <c r="B750" s="1" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>2862</v>
+      </c>
       <c r="B751" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>2862</v>
+      </c>
       <c r="B752" s="1" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>2862</v>
+      </c>
       <c r="B753" s="1" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>2862</v>
+      </c>
       <c r="B754" s="1" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>2862</v>
+      </c>
       <c r="B755" s="1" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>2862</v>
+      </c>
       <c r="B756" s="1" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>2862</v>
+      </c>
       <c r="B757" s="1" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>2862</v>
+      </c>
       <c r="B758" s="1" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>2862</v>
+      </c>
       <c r="B759" s="1" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>2862</v>
+      </c>
       <c r="B760" s="1" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>2862</v>
+      </c>
       <c r="B761" s="1" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>2862</v>
+      </c>
       <c r="B762" s="1" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>2862</v>
+      </c>
       <c r="B763" s="1" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>2862</v>
+      </c>
       <c r="B764" s="1" t="s">
         <v>1452</v>
       </c>
@@ -19186,6 +20984,9 @@
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>2863</v>
+      </c>
       <c r="B767" s="1" t="s">
         <v>478</v>
       </c>
@@ -19195,242 +20996,251 @@
         <v>685</v>
       </c>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>2890</v>
+      </c>
       <c r="B769" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B770" s="1" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B771" s="1" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B772" s="1" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B773" s="1" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B774" s="1" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B775" s="1" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B776" s="1" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B777" s="1" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B778" s="1" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B779" s="1" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B780" s="1" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B781" s="1" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B782" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B783" s="1" t="s">
         <v>2757</v>
       </c>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B784" s="1" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="785" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B785" s="1" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="786" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B786" s="1" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="787" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B787" s="1" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="788" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B788" s="1" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="789" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>2908</v>
+      </c>
       <c r="B789" s="1" t="s">
         <v>2245</v>
       </c>
     </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B790" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="791" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B791" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B792" s="1" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B793" s="1" t="s">
         <v>2450</v>
       </c>
     </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B794" s="1" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="795" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B795" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="796" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B796" s="1" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B797" s="1" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="798" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B798" s="1" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B799" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B800" s="1" t="s">
         <v>2423</v>
       </c>
     </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B801" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B802" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B803" s="1" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>401</v>
+      </c>
       <c r="B804" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B805" s="1" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B806" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B807" s="1" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B808" s="1" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B809" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B810" s="1" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B811" s="1" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B812" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B813" s="1" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B814" s="1" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B815" s="1" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B816" s="1" t="s">
         <v>1489</v>
       </c>
@@ -19616,6 +21426,9 @@
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>2874</v>
+      </c>
       <c r="B853" s="1" t="s">
         <v>772</v>
       </c>
@@ -19678,82 +21491,85 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B865" s="1" t="s">
         <v>2142</v>
       </c>
     </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B866" s="1" t="s">
         <v>1527</v>
       </c>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B867" s="1" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B868" s="1" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B869" s="1" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B870" s="1" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B871" s="1" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B872" s="1" t="s">
         <v>1534</v>
       </c>
     </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B873" s="1" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B874" s="1" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B875" s="1" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B876" s="1" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B877" s="1" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B878" s="1" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B879" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="1" t="s">
+        <v>696</v>
+      </c>
       <c r="B880" s="1" t="s">
         <v>696</v>
       </c>
@@ -20318,242 +22134,278 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="993" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B993" s="1" t="s">
         <v>2583</v>
       </c>
     </row>
-    <row r="994" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B994" s="1" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="995" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B995" s="1" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="996" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B996" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="997" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>2848</v>
+      </c>
       <c r="B997" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="998" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B998" s="1" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="999" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B999" s="1" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1000" s="1" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="1001" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1001" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="1002" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1002" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="1003" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1003" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="1004" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1004" s="1" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="1005" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1005" s="1" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="1006" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1006" s="1" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="1007" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1007" s="1" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="1008" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1008" s="1" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="1009" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1009" s="1" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="1010" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1010" s="1" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="1011" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1011" s="1" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="1012" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1012" s="1" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="1013" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1013" s="1" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1014" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="1015" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1015" s="1" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="1016" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1016" s="1" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="1017" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1017" s="1" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="1018" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1018" s="1" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="1019" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1019" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="1020" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1020" s="1" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="1021" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1021" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="1022" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>330</v>
+      </c>
       <c r="B1022" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="1023" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>330</v>
+      </c>
       <c r="B1023" s="1" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="1024" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>330</v>
+      </c>
       <c r="B1024" s="1" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>330</v>
+      </c>
       <c r="B1025" s="1" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>330</v>
+      </c>
       <c r="B1026" s="1" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="1027" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>330</v>
+      </c>
       <c r="B1027" s="1" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="1028" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>330</v>
+      </c>
       <c r="B1028" s="1" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="1029" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>330</v>
+      </c>
       <c r="B1029" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="1030" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>330</v>
+      </c>
       <c r="B1030" s="1" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="1031" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1031" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="1032" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1032" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1033" s="1" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="1034" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>3055</v>
+      </c>
       <c r="B1034" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="1035" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>3055</v>
+      </c>
       <c r="B1035" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="1036" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1036" s="1" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="1037" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1037" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="1038" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1038" s="1" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="1039" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1039" s="1" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="1040" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1040" s="1" t="s">
         <v>898</v>
       </c>
@@ -20718,82 +22570,85 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="1073" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1" t="s">
+        <v>569</v>
+      </c>
       <c r="B1073" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="1074" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1074" s="1" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="1075" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1075" s="1" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1076" s="1" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1077" s="1" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1078" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="1079" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1079" s="1" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="1080" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1080" s="1" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="1081" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1081" s="1" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1082" s="1" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="1083" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1083" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="1084" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1084" s="1" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1085" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1086" s="1" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="1087" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1087" s="1" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1088" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1088" s="1" t="s">
         <v>337</v>
       </c>
@@ -21044,162 +22899,168 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="1137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1137" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="1138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1138" s="1" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="1139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1139" s="1" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="1140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1140" s="1" t="s">
         <v>2178</v>
       </c>
     </row>
-    <row r="1141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1141" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="1142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1142" s="1" t="s">
         <v>2456</v>
       </c>
     </row>
-    <row r="1143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1143" s="1" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="1144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1144" s="1" t="s">
         <v>2586</v>
       </c>
     </row>
-    <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1145" s="1" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="1146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1146" s="1" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="1147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1147" s="1" t="s">
         <v>2344</v>
       </c>
     </row>
-    <row r="1148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1148" s="1" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="1149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1149" s="1" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="1150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1150" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="1151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1151" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="1152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1152" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="1153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1153" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="1154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1154" s="1" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="1155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1155" s="1" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="1156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>2960</v>
+      </c>
       <c r="B1156" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="1157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1157" s="1" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1158" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1159" s="1" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1160" s="1" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1161" s="1" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1162" s="1" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1163" s="1" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="1164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1164" s="1" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="1165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1165" s="1" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="1166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1166" s="1" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="1167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1167" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="1168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1168" s="1" t="s">
         <v>599</v>
       </c>
@@ -21444,82 +23305,91 @@
         <v>625</v>
       </c>
     </row>
-    <row r="1217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1217" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="B1217" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="1218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1218" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="1219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1219" s="1" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="1220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1220" s="1" t="s">
         <v>2439</v>
       </c>
     </row>
-    <row r="1221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>2867</v>
+      </c>
       <c r="B1221" s="1" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="1222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>2867</v>
+      </c>
       <c r="B1222" s="1" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="1223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1223" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="1224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1224" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="1225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1225" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="1226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1226" s="1" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="1227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1227" s="1" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="1228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1228" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="1229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1229" s="1" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="1230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1230" s="1" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="1231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1231" s="1" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="1232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1232" s="1" t="s">
         <v>884</v>
       </c>
@@ -21604,162 +23474,177 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="1249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1249" s="1" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="1250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1250" s="1" t="s">
         <v>2550</v>
       </c>
     </row>
-    <row r="1251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1251" s="1" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="1252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1252" s="1" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="1253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1253" s="1" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="1254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1254" s="1" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="1255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1255" s="1" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="1256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1256" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="1257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>2868</v>
+      </c>
       <c r="B1257" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="1258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>2868</v>
+      </c>
       <c r="B1258" s="1" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="1259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>2868</v>
+      </c>
       <c r="B1259" s="1" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="1260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>2868</v>
+      </c>
       <c r="B1260" s="1" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="1261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1261" s="1" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="1262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1262" s="1" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="1263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1263" s="1" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="1264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1264" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1265" s="1" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1266" s="1" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1267" s="1" t="s">
         <v>1829</v>
       </c>
     </row>
-    <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1268" s="1" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="1269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1269" s="1" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="1270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1270" s="1" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="1271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1271" s="1" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="1272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1272" s="1" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="1273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1273" s="1" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="1274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1274" s="1" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="1275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1275" s="1" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="1276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>2828</v>
+      </c>
       <c r="B1276" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="1277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1277" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="1278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1278" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1279" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1280" s="1" t="s">
         <v>678</v>
       </c>
@@ -21844,242 +23729,281 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1297" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="1298" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>2973</v>
+      </c>
       <c r="B1298" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="1299" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>2973</v>
+      </c>
       <c r="B1299" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>2973</v>
+      </c>
       <c r="B1300" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>2973</v>
+      </c>
       <c r="B1301" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="1302" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>2973</v>
+      </c>
       <c r="B1302" s="1" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="1303" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>2973</v>
+      </c>
       <c r="B1303" s="1" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="1304" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>2973</v>
+      </c>
       <c r="B1304" s="1" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="1305" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>2973</v>
+      </c>
       <c r="B1305" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="1306" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1306" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="1307" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1307" s="1" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="1308" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1308" s="1" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="1309" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1309" s="1" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="1310" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1310" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="1311" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1311" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="1312" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1312" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="1313" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1313" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="1314" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1314" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="1315" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1315" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="1316" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1316" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="1317" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1317" s="1" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="1318" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1318" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="1319" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>3017</v>
+      </c>
       <c r="B1319" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="1320" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1320" s="1" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="1321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>2950</v>
+      </c>
       <c r="B1321" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="1322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1322" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="1323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1323" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="1324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1324" s="1" t="s">
         <v>1830</v>
       </c>
     </row>
-    <row r="1325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1325" s="1" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="1326" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1326" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="1327" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1327" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="1328" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1328" s="1" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="1329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1329" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="1330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>2910</v>
+      </c>
       <c r="B1330" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="1331" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>2910</v>
+      </c>
       <c r="B1331" s="1" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="1332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1332" s="1" t="s">
         <v>2577</v>
       </c>
     </row>
-    <row r="1333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1333" s="1" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="1334" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1334" s="1" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="1335" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1335" s="1" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="1336" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1336" s="1" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="1337" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1337" s="1" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="1338" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1338" s="1" t="s">
         <v>2076</v>
       </c>
     </row>
-    <row r="1339" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>3000</v>
+      </c>
       <c r="B1339" s="1" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="1340" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1340" s="1" t="s">
         <v>1864</v>
       </c>
     </row>
-    <row r="1341" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1341" s="1" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="1342" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1342" s="1" t="s">
         <v>1866</v>
       </c>
     </row>
-    <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1343" s="1" t="s">
         <v>1868</v>
       </c>
     </row>
-    <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1344" s="1" t="s">
         <v>1869</v>
       </c>
@@ -22644,162 +24568,168 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="1457" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1457" s="1" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="1458" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1458" s="1" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="1459" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1459" s="1" t="s">
         <v>1945</v>
       </c>
     </row>
-    <row r="1460" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1460" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="1461" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1461" s="1" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="1462" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1462" s="1" t="s">
         <v>2742</v>
       </c>
     </row>
-    <row r="1463" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1463" s="1" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="1464" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1464" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="1465" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1465" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="1466" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1466" s="1" t="s">
         <v>2188</v>
       </c>
     </row>
-    <row r="1467" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1467" s="1" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="1468" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1468" s="1" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="1469" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1469" t="s">
+        <v>2836</v>
+      </c>
       <c r="B1469" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="1470" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1470" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="1471" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1471" s="1" t="s">
         <v>1952</v>
       </c>
     </row>
-    <row r="1472" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1472" s="1" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="1473" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1473" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="1474" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1474" s="1" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="1475" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1475" s="1" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="1476" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1476" s="1" t="s">
         <v>1962</v>
       </c>
     </row>
-    <row r="1477" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1477" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="1478" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1478" s="1" t="s">
         <v>1957</v>
       </c>
     </row>
-    <row r="1479" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1479" s="1" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="1480" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1480" s="1" t="s">
         <v>1960</v>
       </c>
     </row>
-    <row r="1481" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1481" s="1" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="1482" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1482" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="1483" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1483" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="1484" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1484" s="1" t="s">
         <v>2428</v>
       </c>
     </row>
-    <row r="1485" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1485" s="1" t="s">
         <v>2063</v>
       </c>
     </row>
-    <row r="1486" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1486" s="1" t="s">
         <v>1964</v>
       </c>
     </row>
-    <row r="1487" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1487" t="s">
+        <v>2981</v>
+      </c>
       <c r="B1487" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="1488" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1488" s="1" t="s">
         <v>432</v>
       </c>
@@ -22893,51 +24823,79 @@
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1506" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B1506" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1507" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B1507" s="1" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1508" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B1508" s="1" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1509" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B1509" s="1" t="s">
         <v>1980</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1510" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B1510" s="1" t="s">
         <v>1981</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1511" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B1511" s="1" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1512" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B1512" s="1" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1513" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B1513" s="1" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1514" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B1514" s="1" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1515" s="1"/>
       <c r="B1515" s="1" t="s">
         <v>1979</v>
       </c>
@@ -23130,162 +25088,171 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="1553" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1553" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="1554" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1554" s="1" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="1555" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1555" s="1" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="1556" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1556" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="1557" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1557" s="1" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="1558" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1558" s="1" t="s">
         <v>2021</v>
       </c>
     </row>
-    <row r="1559" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1559" s="1" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="1560" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1560" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="1561" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1561" s="1" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="1562" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1562" s="1" t="s">
         <v>2313</v>
       </c>
     </row>
-    <row r="1563" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1563" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="1564" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1564" s="1" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="1565" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1565" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="1566" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1566" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="1567" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1567" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="1568" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1568" t="s">
+        <v>3092</v>
+      </c>
       <c r="B1568" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="1569" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1569" s="1" t="s">
+        <v>2875</v>
+      </c>
       <c r="B1569" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="1570" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1570" s="1" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="1571" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1571" t="s">
+        <v>3095</v>
+      </c>
       <c r="B1571" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="1572" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1572" s="1" t="s">
         <v>2029</v>
       </c>
     </row>
-    <row r="1573" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1573" s="1" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="1574" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1574" s="1" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="1575" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1575" s="1" t="s">
         <v>2033</v>
       </c>
     </row>
-    <row r="1576" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1576" s="1" t="s">
         <v>2034</v>
       </c>
     </row>
-    <row r="1577" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1577" s="1" t="s">
         <v>2035</v>
       </c>
     </row>
-    <row r="1578" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1578" s="1" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="1579" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1579" s="1" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="1580" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1580" s="1" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="1581" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1581" s="1" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="1582" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1582" s="1" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="1583" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1583" s="1" t="s">
         <v>2042</v>
       </c>
     </row>
-    <row r="1584" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1584" s="1" t="s">
         <v>2041</v>
       </c>
@@ -23613,82 +25580,85 @@
         <v>341</v>
       </c>
     </row>
-    <row r="1649" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1649" s="1" t="s">
         <v>2103</v>
       </c>
     </row>
-    <row r="1650" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1650" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="1651" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1651" s="1" t="s">
         <v>2104</v>
       </c>
     </row>
-    <row r="1652" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1652" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="1653" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1653" s="1" t="s">
         <v>2107</v>
       </c>
     </row>
-    <row r="1654" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1654" s="1" t="s">
         <v>2108</v>
       </c>
     </row>
-    <row r="1655" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1655" s="1" t="s">
         <v>2109</v>
       </c>
     </row>
-    <row r="1656" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1656" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1656" s="1" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="1657" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1657" s="1" t="s">
         <v>2116</v>
       </c>
     </row>
-    <row r="1658" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1658" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="1659" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1659" s="1" t="s">
         <v>2117</v>
       </c>
     </row>
-    <row r="1660" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1660" s="1" t="s">
         <v>2118</v>
       </c>
     </row>
-    <row r="1661" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1661" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="1662" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1662" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="1663" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1663" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="1664" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1664" s="1" t="s">
         <v>2044</v>
       </c>
@@ -23856,162 +25826,198 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="1697" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1697" s="1" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="1698" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1698" s="1" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="1699" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1699" s="1" t="s">
         <v>2154</v>
       </c>
     </row>
-    <row r="1700" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1700" s="1" t="s">
         <v>2156</v>
       </c>
     </row>
-    <row r="1701" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1701" s="1" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="1702" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1702" s="1" t="s">
         <v>2260</v>
       </c>
     </row>
-    <row r="1703" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1703" s="1" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="1704" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1704" s="1" t="s">
         <v>2163</v>
       </c>
     </row>
-    <row r="1705" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1705" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="1706" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1706" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="1707" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1707" s="1" t="s">
         <v>2441</v>
       </c>
     </row>
-    <row r="1708" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1708" s="1" t="s">
         <v>2165</v>
       </c>
     </row>
-    <row r="1709" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1709" s="1" t="s">
         <v>2166</v>
       </c>
     </row>
-    <row r="1710" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1710" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="1711" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1711" t="s">
+        <v>2813</v>
+      </c>
       <c r="B1711" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="1712" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1712" s="1" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="1713" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1713" s="1" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="1714" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1714" s="1" t="s">
         <v>2167</v>
       </c>
     </row>
-    <row r="1715" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1715" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1715" s="1" t="s">
         <v>2173</v>
       </c>
     </row>
-    <row r="1716" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1716" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1716" s="1" t="s">
         <v>2169</v>
       </c>
     </row>
-    <row r="1717" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1717" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1717" s="1" t="s">
         <v>2222</v>
       </c>
     </row>
-    <row r="1718" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1718" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1718" s="1" t="s">
         <v>2170</v>
       </c>
     </row>
-    <row r="1719" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1719" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1719" s="1" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="1720" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1720" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1720" s="1" t="s">
         <v>2172</v>
       </c>
     </row>
-    <row r="1721" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1721" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1721" s="1" t="s">
         <v>2174</v>
       </c>
     </row>
-    <row r="1722" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1722" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1722" s="1" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="1723" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1723" s="1" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1723" s="1" t="s">
         <v>2179</v>
       </c>
     </row>
-    <row r="1724" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1724" s="1" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1724" s="1" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="1725" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1725" s="1" t="s">
+        <v>2908</v>
+      </c>
       <c r="B1725" s="1" t="s">
         <v>2182</v>
       </c>
     </row>
-    <row r="1726" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1726" s="1" t="s">
         <v>2183</v>
       </c>
     </row>
-    <row r="1727" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1727" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="1728" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1728" s="1" t="s">
         <v>2184</v>
       </c>
@@ -24096,82 +26102,88 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="1745" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1745" s="1" t="s">
         <v>2200</v>
       </c>
     </row>
-    <row r="1746" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1746" s="1" t="s">
         <v>2201</v>
       </c>
     </row>
-    <row r="1747" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1747" s="1" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="1748" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1748" s="1" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="1749" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1749" s="1" t="s">
         <v>2204</v>
       </c>
     </row>
-    <row r="1750" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1750" s="1" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="1751" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1751" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="1752" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1752" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="1753" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1753" s="1" t="s">
         <v>2205</v>
       </c>
     </row>
-    <row r="1754" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1754" t="s">
+        <v>2855</v>
+      </c>
       <c r="B1754" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="1755" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1755" t="s">
+        <v>2855</v>
+      </c>
       <c r="B1755" s="1" t="s">
         <v>2206</v>
       </c>
     </row>
-    <row r="1756" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1756" s="1" t="s">
         <v>2208</v>
       </c>
     </row>
-    <row r="1757" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1757" s="1" t="s">
         <v>2209</v>
       </c>
     </row>
-    <row r="1758" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1758" s="1" t="s">
         <v>2210</v>
       </c>
     </row>
-    <row r="1759" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1759" s="1" t="s">
         <v>2211</v>
       </c>
     </row>
-    <row r="1760" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1760" s="1" t="s">
         <v>2207</v>
       </c>
@@ -24416,82 +26428,85 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="1809" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1809" t="s">
+        <v>2846</v>
+      </c>
       <c r="B1809" s="1" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="1810" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1810" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="1811" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1811" s="1" t="s">
         <v>2253</v>
       </c>
     </row>
-    <row r="1812" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1812" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="1813" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1813" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="1814" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1814" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="1815" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1815" s="1" t="s">
         <v>2255</v>
       </c>
     </row>
-    <row r="1816" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1816" s="1" t="s">
         <v>2256</v>
       </c>
     </row>
-    <row r="1817" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1817" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="1818" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1818" s="1" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="1819" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1819" s="1" t="s">
         <v>1963</v>
       </c>
     </row>
-    <row r="1820" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1820" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="1821" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1821" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="1822" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1822" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="1823" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1823" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="1824" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1824" s="1" t="s">
         <v>897</v>
       </c>
@@ -24576,82 +26591,85 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="1841" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1841" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="1842" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1842" s="1" t="s">
         <v>2277</v>
       </c>
     </row>
-    <row r="1843" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1843" s="1" t="s">
         <v>2279</v>
       </c>
     </row>
-    <row r="1844" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1844" s="1" t="s">
         <v>2280</v>
       </c>
     </row>
-    <row r="1845" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1845" s="1" t="s">
         <v>2281</v>
       </c>
     </row>
-    <row r="1846" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1846" s="1" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="1847" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1847" s="1" t="s">
         <v>2283</v>
       </c>
     </row>
-    <row r="1848" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1848" s="1" t="s">
         <v>2284</v>
       </c>
     </row>
-    <row r="1849" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1849" s="1" t="s">
         <v>2689</v>
       </c>
     </row>
-    <row r="1850" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1850" s="1" t="s">
         <v>2285</v>
       </c>
     </row>
-    <row r="1851" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1851" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="1852" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1852" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="1853" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1853" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="1854" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1854" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="B1854" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="1855" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1855" s="1" t="s">
         <v>2286</v>
       </c>
     </row>
-    <row r="1856" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1856" s="1" t="s">
         <v>2025</v>
       </c>
@@ -24736,82 +26754,88 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="1873" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1873" s="1" t="s">
         <v>2301</v>
       </c>
     </row>
-    <row r="1874" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1874" t="s">
+        <v>561</v>
+      </c>
       <c r="B1874" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="1875" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1875" t="s">
+        <v>561</v>
+      </c>
       <c r="B1875" s="1" t="s">
         <v>2303</v>
       </c>
     </row>
-    <row r="1876" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1876" s="1" t="s">
         <v>2304</v>
       </c>
     </row>
-    <row r="1877" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1877" s="1" t="s">
         <v>2306</v>
       </c>
     </row>
-    <row r="1878" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1878" s="1" t="s">
         <v>2307</v>
       </c>
     </row>
-    <row r="1879" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1879" s="1" t="s">
         <v>2305</v>
       </c>
     </row>
-    <row r="1880" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1880" s="1" t="s">
         <v>2409</v>
       </c>
     </row>
-    <row r="1881" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1881" s="1" t="s">
         <v>2308</v>
       </c>
     </row>
-    <row r="1882" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1882" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="1883" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1883" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="1884" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1884" s="1" t="s">
         <v>2309</v>
       </c>
     </row>
-    <row r="1885" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1885" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="1886" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1886" s="1" t="s">
         <v>2310</v>
       </c>
     </row>
-    <row r="1887" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1887" s="1" t="s">
         <v>2311</v>
       </c>
     </row>
-    <row r="1888" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1888" s="1" t="s">
         <v>2312</v>
       </c>
@@ -24830,6 +26854,9 @@
       </c>
     </row>
     <row r="1891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1891" t="s">
+        <v>2953</v>
+      </c>
       <c r="B1891" s="1" t="s">
         <v>2314</v>
       </c>
@@ -27628,82 +29655,85 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="2449" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2449" s="1" t="s">
         <v>2748</v>
       </c>
     </row>
-    <row r="2450" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2450" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="2451" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2451" s="1" t="s">
         <v>2750</v>
       </c>
     </row>
-    <row r="2452" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2452" s="1" t="s">
         <v>2749</v>
       </c>
     </row>
-    <row r="2453" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2453" s="1" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="2454" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2454" s="1" t="s">
         <v>2752</v>
       </c>
     </row>
-    <row r="2455" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2455" s="1" t="s">
         <v>2756</v>
       </c>
     </row>
-    <row r="2456" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2456" s="1" t="s">
         <v>2753</v>
       </c>
     </row>
-    <row r="2457" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2457" s="1" t="s">
         <v>2754</v>
       </c>
     </row>
-    <row r="2458" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2458" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="2459" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2459" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="2460" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2460" s="1" t="s">
         <v>2755</v>
       </c>
     </row>
-    <row r="2461" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2461" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="2462" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2462" s="1" t="s">
         <v>2751</v>
       </c>
     </row>
-    <row r="2463" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2463" s="1" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="2464" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2464" s="1" t="s">
+        <v>2824</v>
+      </c>
       <c r="B2464" s="1" t="s">
         <v>354</v>
       </c>
@@ -27871,82 +29901,85 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="2497" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2497" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="2498" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2498" s="1" t="s">
         <v>2780</v>
       </c>
     </row>
-    <row r="2499" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2499" s="1" t="s">
         <v>2782</v>
       </c>
     </row>
-    <row r="2500" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2500" s="1" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="2501" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2501" s="1" t="s">
         <v>2783</v>
       </c>
     </row>
-    <row r="2502" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2502" s="1" t="s">
         <v>2784</v>
       </c>
     </row>
-    <row r="2503" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2503" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="2504" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2504" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="B2504" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2505" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2505" s="1" t="s">
         <v>2785</v>
       </c>
     </row>
-    <row r="2506" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2506" s="1" t="s">
         <v>2786</v>
       </c>
     </row>
-    <row r="2507" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2507" s="1" t="s">
         <v>2788</v>
       </c>
     </row>
-    <row r="2508" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2508" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="2509" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2509" s="1" t="s">
         <v>2789</v>
       </c>
     </row>
-    <row r="2510" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2510" s="1" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="2511" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2511" s="1" t="s">
         <v>2791</v>
       </c>
     </row>
-    <row r="2512" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2512" s="1" t="s">
         <v>1500</v>
       </c>

--- a/data_intermediate/diseasetrait_naming_conversion.xlsx
+++ b/data_intermediate/diseasetrait_naming_conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karinemoussa/Documents/DrLiu_Lab/Shiny_Apps/xci-app-1/data_intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C330967-2715-3746-8B0E-E72029B7D540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574201DC-CAA1-F94D-8150-40449164EA7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{CD089294-1F05-E948-8928-BB4B549864DB}"/>
+    <workbookView xWindow="180" yWindow="560" windowWidth="28800" windowHeight="16100" xr2:uid="{CD089294-1F05-E948-8928-BB4B549864DB}"/>
   </bookViews>
   <sheets>
     <sheet name="UKBIO_list" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="3138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4361" uniqueCount="3149">
   <si>
     <t>DISEASE/TRAIT</t>
   </si>
@@ -9434,9 +9434,6 @@
     <t>iron deficiency anemia; iron-refractory iron deficiency anemia</t>
   </si>
   <si>
-    <t>nephrolithiasis; nephrolithiasis, x-linked recessive, with renal failure</t>
-  </si>
-  <si>
     <t>cirrhosis, familial; north american indian childhood cirrhosis</t>
   </si>
   <si>
@@ -9456,6 +9453,42 @@
   </si>
   <si>
     <t>osteoporosis; osteoporosis-pseudoglioma syndrome</t>
+  </si>
+  <si>
+    <t>polycystic kidney; polycystic kidney, autosomal recessive</t>
+  </si>
+  <si>
+    <t>retinal diseases; retinal vasculitis</t>
+  </si>
+  <si>
+    <t>************</t>
+  </si>
+  <si>
+    <t>rheumatoid arthritis; Rheumatoid arthritis (ACPA-positive)</t>
+  </si>
+  <si>
+    <t>sarcoidosis; sarcoidosis, early-onset</t>
+  </si>
+  <si>
+    <t>testicular microlithiasis; testicular neoplasms</t>
+  </si>
+  <si>
+    <t>alpha-thalassemia; alpha-thalassemia myelodysplasia syndrome; beta-thalassemia</t>
+  </si>
+  <si>
+    <t>thyroid diseases; thyroid hormones</t>
+  </si>
+  <si>
+    <t>*************</t>
+  </si>
+  <si>
+    <t>Tuberculosis; Tuberculosis (SNP x SNP interaction)</t>
+  </si>
+  <si>
+    <t>nephrolithiasis; urinary calculi; kidney calculi</t>
+  </si>
+  <si>
+    <t>nephrolithiasis; nephrolithiasis, x-linked recessive, with renal failure; urinary calculi; kidney calculi</t>
   </si>
 </sst>
 </file>
@@ -9494,7 +9527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9513,6 +9546,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -9526,7 +9565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9538,6 +9577,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9854,8 +9894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9412DD1-8B46-F046-8E59-DD463C0416FE}">
   <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScale="144" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E317" sqref="E317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11758,10 +11798,10 @@
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="5" t="s">
-        <v>279</v>
+        <v>3147</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>3130</v>
+        <v>3148</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>1848</v>
@@ -11809,7 +11849,7 @@
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -11850,11 +11890,11 @@
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="D182" s="4"/>
       <c r="F182" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -12063,7 +12103,7 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="F199" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -12073,7 +12113,7 @@
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>1018</v>
@@ -12118,10 +12158,10 @@
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="5" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>2111</v>
@@ -12228,7 +12268,7 @@
         <v>561</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>2179</v>
@@ -12238,7 +12278,9 @@
       <c r="A214" t="s">
         <v>2837</v>
       </c>
-      <c r="D214" s="1"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="5"/>
       <c r="F214" s="1" t="s">
         <v>2180</v>
       </c>
@@ -12262,16 +12304,29 @@
       <c r="A216" t="s">
         <v>2955</v>
       </c>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>2937</v>
       </c>
+      <c r="B217" s="4"/>
+      <c r="C217" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>2829</v>
       </c>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
@@ -12395,16 +12450,29 @@
       <c r="A233" t="s">
         <v>2871</v>
       </c>
+      <c r="B233" s="4"/>
+      <c r="C233" s="5" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>3022</v>
       </c>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>2832</v>
       </c>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -12420,31 +12488,57 @@
       <c r="A237" t="s">
         <v>2994</v>
       </c>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="5"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>3012</v>
       </c>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2951</v>
       </c>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4" t="s">
+        <v>3137</v>
+      </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>2915</v>
       </c>
+      <c r="B240" s="4"/>
+      <c r="C240" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2959</v>
       </c>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="5" t="s">
+        <v>2385</v>
+      </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2925</v>
       </c>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
@@ -12458,46 +12552,81 @@
       <c r="A244" t="s">
         <v>2979</v>
       </c>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2906</v>
       </c>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2860</v>
       </c>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>3008</v>
       </c>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>452</v>
       </c>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2985</v>
       </c>
+      <c r="B249" s="4"/>
+      <c r="C249" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2873</v>
       </c>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2823</v>
       </c>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>3035</v>
       </c>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -12511,53 +12640,99 @@
       <c r="A254" t="s">
         <v>3054</v>
       </c>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2854</v>
       </c>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2853</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>2852</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="4"/>
+      <c r="C257" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>3049</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>2894</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>2893</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="G260" s="4" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>2889</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B261" s="4"/>
+      <c r="C261" s="5" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>3139</v>
+      </c>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>2987</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>2976</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>2976</v>
+        <v>3140</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>358</v>
@@ -12565,28 +12740,64 @@
       <c r="D263" s="5" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G263" s="1" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>3093</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B264" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="G264" s="1" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>3041</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B265" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="G265" s="1" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B266" s="4"/>
+      <c r="C266" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E266" s="1"/>
+      <c r="G266" s="1" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>3100</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="G267" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>281</v>
       </c>
@@ -12599,104 +12810,231 @@
       <c r="D268" s="4" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G268" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>2984</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="G269" s="1" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>2928</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B270" s="4"/>
+      <c r="C270" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B271" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>3091</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="G272" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>3044</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="G273" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>2927</v>
       </c>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G274" s="1" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>2831</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B275" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="G275" s="1" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>2878</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="G276" s="1" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>2887</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="G277" s="1" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>3019</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="G278" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>2905</v>
       </c>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G279" s="1" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>2833</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="5" t="s">
+        <v>2380</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2835</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B281" s="4"/>
+      <c r="C281" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>3058</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="G282" s="1" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B283" s="4"/>
+      <c r="C283" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2821</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="G284" s="1" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>2820</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="G285" s="1" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>2990</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="G286" s="1" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>2926</v>
       </c>
@@ -12709,78 +13047,218 @@
       <c r="D287" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G287" s="1" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>3061</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="G288" s="1" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>3063</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="G289" s="1" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>2861</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B290" s="4"/>
+      <c r="C290" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>3142</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>2912</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B291" s="4"/>
+      <c r="C291" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>2943</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>3056</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="11" t="s">
+        <v>3145</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>2866</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B294" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>3145</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>2952</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B295" s="4"/>
+      <c r="C295" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>3050</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="E296" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>3051</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B297" s="4"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="4"/>
+      <c r="E297" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2819</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B298" s="4"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="4"/>
+      <c r="E298" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>2882</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>3010</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="E300" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>2961</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B301" s="5" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>2864</v>
       </c>
@@ -12793,8 +13271,11 @@
       <c r="D302" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E302" s="1" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>2865</v>
       </c>
@@ -12807,8 +13288,11 @@
       <c r="D303" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E303" s="1" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>2975</v>
       </c>
@@ -12819,46 +13303,72 @@
       <c r="D304" s="4" t="s">
         <v>3117</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E304" s="1" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>3004</v>
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E305" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>3103</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>3101</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>2857</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="5"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2859</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B309" s="4"/>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2855</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B310" s="5"/>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>3037</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B311" s="4"/>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>2916</v>
       </c>
@@ -12868,7 +13378,7 @@
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>2917</v>
       </c>
@@ -12876,23 +13386,33 @@
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2918</v>
       </c>
-      <c r="B314" s="1"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B314" s="5"/>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B315" s="4"/>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2922</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B316" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>2996</v>
       </c>
@@ -12900,7 +13420,7 @@
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>449</v>
       </c>
@@ -12914,15 +13434,21 @@
         <v>449</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>2947</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B319" s="4"/>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>3043</v>
       </c>
+      <c r="B320" s="4"/>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A320">
@@ -12937,8 +13463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAB156A-F1D2-EC44-883B-91991D29CBD6}">
   <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12971,6 +13497,9 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>501</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -13037,6 +13566,9 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2922</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>169</v>
       </c>
@@ -14123,16 +14655,25 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>2976</v>
+      </c>
       <c r="B221" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>3093</v>
+      </c>
       <c r="B222" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>3041</v>
+      </c>
       <c r="B223" s="1" t="s">
         <v>84</v>
       </c>
@@ -14181,6 +14722,9 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>2831</v>
+      </c>
       <c r="B232" s="1" t="s">
         <v>18</v>
       </c>
@@ -14250,6 +14794,9 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>2866</v>
+      </c>
       <c r="B244" s="1" t="s">
         <v>57</v>
       </c>
@@ -14305,11 +14852,17 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>2961</v>
+      </c>
       <c r="B255" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>2961</v>
+      </c>
       <c r="B256" s="1" t="s">
         <v>183</v>
       </c>
@@ -14433,8 +14986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC87240-39B2-2D45-960E-6784B043F1CF}">
   <dimension ref="A1:B436"/>
   <sheetViews>
-    <sheetView topLeftCell="A407" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B421" sqref="B421"/>
+    <sheetView topLeftCell="A353" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14472,6 +15025,9 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2937</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>376</v>
       </c>
@@ -14637,6 +15193,9 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2985</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>556</v>
       </c>
@@ -14706,6 +15265,9 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>2912</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>416</v>
       </c>
@@ -14765,7 +15327,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>429</v>
@@ -15754,6 +16316,9 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>2856</v>
+      </c>
       <c r="B239" s="1" t="s">
         <v>626</v>
       </c>
@@ -15764,6 +16329,9 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>2852</v>
+      </c>
       <c r="B241" s="1" t="s">
         <v>318</v>
       </c>
@@ -16036,6 +16604,9 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>2961</v>
+      </c>
       <c r="B290" s="1" t="s">
         <v>623</v>
       </c>
@@ -16090,7 +16661,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>279</v>
@@ -16205,162 +16776,168 @@
         <v>374</v>
       </c>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B321" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B322" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B323" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B324" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B325" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B326" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B327" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B328" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B329" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B330" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B331" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B332" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>2915</v>
+      </c>
       <c r="B333" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B334" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B335" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B336" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B337" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B338" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B339" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B340" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B341" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B342" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B343" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B344" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B345" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>452</v>
+      </c>
       <c r="B346" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B347" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B348" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B349" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B350" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B351" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B352" s="1" t="s">
         <v>504</v>
       </c>
@@ -16426,11 +17003,17 @@
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>2889</v>
+      </c>
       <c r="B365" s="1" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>2889</v>
+      </c>
       <c r="B366" s="1" t="s">
         <v>451</v>
       </c>
@@ -16454,6 +17037,9 @@
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>680</v>
+      </c>
       <c r="B370" s="1" t="s">
         <v>680</v>
       </c>
@@ -16472,11 +17058,17 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>2928</v>
+      </c>
       <c r="B373" s="1" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>501</v>
+      </c>
       <c r="B374" s="1" t="s">
         <v>501</v>
       </c>
@@ -16565,11 +17157,17 @@
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>2835</v>
+      </c>
       <c r="B391" s="1" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>523</v>
+      </c>
       <c r="B392" s="1" t="s">
         <v>523</v>
       </c>
@@ -16600,6 +17198,9 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>2861</v>
+      </c>
       <c r="B398" s="1" t="s">
         <v>362</v>
       </c>
@@ -16614,82 +17215,91 @@
         <v>701</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B401" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B402" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>2866</v>
+      </c>
       <c r="B403" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>2866</v>
+      </c>
       <c r="B404" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B405" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>2952</v>
+      </c>
       <c r="B406" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B407" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B408" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B409" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B410" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B411" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B412" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B413" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B414" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B415" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="s">
         <v>537</v>
       </c>
@@ -16705,6 +17315,9 @@
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>2856</v>
+      </c>
       <c r="B419" s="1" t="s">
         <v>277</v>
       </c>
@@ -16813,8 +17426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A27DD5-9C45-4540-ACA5-15A282443161}">
   <dimension ref="A1:B2533"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A1970" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1983" sqref="B1983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16986,82 +17599,88 @@
         <v>860</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>2523</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2871</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>2369</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2937</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>612</v>
       </c>
@@ -17294,11 +17913,17 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2912</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>2692</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>2912</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>907</v>
       </c>
@@ -17773,6 +18398,9 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>2985</v>
+      </c>
       <c r="B186" s="1" t="s">
         <v>556</v>
       </c>
@@ -18117,6 +18745,9 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>2912</v>
+      </c>
       <c r="B253" s="1" t="s">
         <v>416</v>
       </c>
@@ -18311,6 +18942,9 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>2889</v>
+      </c>
       <c r="B290" s="1" t="s">
         <v>1038</v>
       </c>
@@ -20373,82 +21007,85 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>3101</v>
+      </c>
       <c r="B657" s="1" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B658" s="1" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B659" s="1" t="s">
         <v>2678</v>
       </c>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B660" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B661" s="1" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B662" s="1" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B663" s="1" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B664" s="1" t="s">
         <v>2231</v>
       </c>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B665" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B666" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B667" s="1" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B668" s="1" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B669" s="1" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B670" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B671" s="1" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B672" s="1" t="s">
         <v>1346</v>
       </c>
@@ -21148,6 +21785,9 @@
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>2889</v>
+      </c>
       <c r="B798" s="1" t="s">
         <v>1475</v>
       </c>
@@ -22634,6 +23274,9 @@
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>2871</v>
+      </c>
       <c r="B1085" s="1" t="s">
         <v>865</v>
       </c>
@@ -24168,162 +24811,174 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="1377" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1377" t="s">
+        <v>2852</v>
+      </c>
       <c r="B1377" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="1378" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1378" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="1379" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1379" t="s">
+        <v>2852</v>
+      </c>
       <c r="B1379" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="1380" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1380" s="1" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="1381" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1381" s="1" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="1382" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1382" s="1" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="1383" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1383" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="1384" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1384" s="1" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="1385" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1385" s="1" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="1386" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1386" s="1" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="1387" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1387" s="1" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="1388" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1388" s="1" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="1389" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1389" s="1" t="s">
         <v>2351</v>
       </c>
     </row>
-    <row r="1390" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1390" s="1" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="1391" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1391" s="1" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="1392" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1392" s="1" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="1393" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1393" s="1" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="1394" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1394" s="1" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="1395" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1395" s="1" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="1396" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1396" s="1" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="1397" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1397" s="1" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="1398" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1398" s="1" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="1399" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1399" s="1" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="1400" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1400" t="s">
+        <v>2943</v>
+      </c>
       <c r="B1400" s="1" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="1401" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1401" t="s">
+        <v>2889</v>
+      </c>
       <c r="B1401" s="1" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="1402" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1402" s="1" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="1403" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1403" s="1" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="1404" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1404" s="1" t="s">
         <v>2105</v>
       </c>
     </row>
-    <row r="1405" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1405" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="1406" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1406" s="1" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="1407" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1407" s="1" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="1408" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1408" s="1" t="s">
         <v>1912</v>
       </c>
@@ -24901,6 +25556,9 @@
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1516" t="s">
+        <v>2889</v>
+      </c>
       <c r="B1516" s="1" t="s">
         <v>1985</v>
       </c>
@@ -25872,6 +26530,9 @@
       </c>
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1706" t="s">
+        <v>2961</v>
+      </c>
       <c r="B1706" s="1" t="s">
         <v>623</v>
       </c>
@@ -26149,7 +26810,7 @@
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1754" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="B1754" s="1" t="s">
         <v>279</v>
@@ -26157,7 +26818,7 @@
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1755" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="B1755" s="1" t="s">
         <v>2206</v>
@@ -26926,82 +27587,85 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="1905" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1905" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="1906" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1906" s="1" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="1907" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1907" s="1" t="s">
         <v>2327</v>
       </c>
     </row>
-    <row r="1908" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1908" s="1" t="s">
         <v>2328</v>
       </c>
     </row>
-    <row r="1909" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1909" s="1" t="s">
         <v>2329</v>
       </c>
     </row>
-    <row r="1910" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1910" s="1" t="s">
         <v>2330</v>
       </c>
     </row>
-    <row r="1911" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1911" s="1" t="s">
         <v>2331</v>
       </c>
     </row>
-    <row r="1912" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1912" s="1" t="s">
         <v>2333</v>
       </c>
     </row>
-    <row r="1913" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1913" s="1" t="s">
         <v>2759</v>
       </c>
     </row>
-    <row r="1914" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1914" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="1915" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1915" s="1" t="s">
         <v>2334</v>
       </c>
     </row>
-    <row r="1916" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1916" t="s">
+        <v>2889</v>
+      </c>
       <c r="B1916" s="1" t="s">
         <v>1984</v>
       </c>
     </row>
-    <row r="1917" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1917" s="1" t="s">
         <v>2336</v>
       </c>
     </row>
-    <row r="1918" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1918" s="1" t="s">
         <v>2337</v>
       </c>
     </row>
-    <row r="1919" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1919" s="1" t="s">
         <v>2338</v>
       </c>
     </row>
-    <row r="1920" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1920" s="1" t="s">
         <v>1694</v>
       </c>
@@ -27166,162 +27830,180 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="1953" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1953" t="s">
+        <v>2889</v>
+      </c>
       <c r="B1953" s="1" t="s">
         <v>2366</v>
       </c>
     </row>
-    <row r="1954" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1954" s="1" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="1955" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1955" s="1" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="1956" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1956" s="1" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="1957" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1957" s="1" t="s">
         <v>2372</v>
       </c>
     </row>
-    <row r="1958" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1958" s="1" t="s">
         <v>2374</v>
       </c>
     </row>
-    <row r="1959" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1959" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="1960" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1960" s="1" t="s">
         <v>2375</v>
       </c>
     </row>
-    <row r="1961" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1961" s="1" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="1962" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1962" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="1963" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1963" s="1" t="s">
         <v>2376</v>
       </c>
     </row>
-    <row r="1964" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1964" s="1" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="1965" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1965" s="1" t="s">
         <v>2378</v>
       </c>
     </row>
-    <row r="1966" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1966" s="1" t="s">
         <v>2379</v>
       </c>
     </row>
-    <row r="1967" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1967" t="s">
+        <v>2833</v>
+      </c>
       <c r="B1967" s="1" t="s">
         <v>2380</v>
       </c>
     </row>
-    <row r="1968" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1968" s="1" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="1969" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1969" s="1" t="s">
         <v>2381</v>
       </c>
     </row>
-    <row r="1970" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1970" t="s">
+        <v>2951</v>
+      </c>
       <c r="B1970" s="1" t="s">
         <v>2383</v>
       </c>
     </row>
-    <row r="1971" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1971" t="s">
+        <v>2951</v>
+      </c>
       <c r="B1971" s="1" t="s">
         <v>2382</v>
       </c>
     </row>
-    <row r="1972" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1972" s="1" t="s">
         <v>2196</v>
       </c>
     </row>
-    <row r="1973" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1973" s="1" t="s">
         <v>2384</v>
       </c>
     </row>
-    <row r="1974" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1974" t="s">
+        <v>2915</v>
+      </c>
       <c r="B1974" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="1975" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1975" t="s">
+        <v>2959</v>
+      </c>
       <c r="B1975" s="1" t="s">
         <v>2385</v>
       </c>
     </row>
-    <row r="1976" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1976" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="1977" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1977" s="1" t="s">
         <v>2386</v>
       </c>
     </row>
-    <row r="1978" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1978" s="1" t="s">
         <v>2387</v>
       </c>
     </row>
-    <row r="1979" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1979" s="1" t="s">
         <v>2388</v>
       </c>
     </row>
-    <row r="1980" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1980" s="1" t="s">
         <v>2389</v>
       </c>
     </row>
-    <row r="1981" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1981" s="1" t="s">
         <v>2390</v>
       </c>
     </row>
-    <row r="1982" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1982" s="1" t="s">
         <v>2293</v>
       </c>
     </row>
-    <row r="1983" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1983" s="1" t="s">
         <v>2391</v>
       </c>
     </row>
-    <row r="1984" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1984" s="1" t="s">
         <v>2393</v>
       </c>
@@ -27486,82 +28168,85 @@
         <v>493</v>
       </c>
     </row>
-    <row r="2017" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2017" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2018" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2018" s="1" t="s">
         <v>2419</v>
       </c>
     </row>
-    <row r="2019" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2019" s="1" t="s">
         <v>2416</v>
       </c>
     </row>
-    <row r="2020" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2020" s="1" t="s">
         <v>2420</v>
       </c>
     </row>
-    <row r="2021" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2021" s="1" t="s">
         <v>2417</v>
       </c>
     </row>
-    <row r="2022" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2022" s="1" t="s">
         <v>2418</v>
       </c>
     </row>
-    <row r="2023" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2023" s="1" t="s">
         <v>2421</v>
       </c>
     </row>
-    <row r="2024" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2024" s="1" t="s">
         <v>2422</v>
       </c>
     </row>
-    <row r="2025" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2025" s="1" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="2026" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2026" s="1" t="s">
         <v>2671</v>
       </c>
     </row>
-    <row r="2027" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2027" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2028" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2028" s="1" t="s">
         <v>2370</v>
       </c>
     </row>
-    <row r="2029" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2029" s="1" t="s">
         <v>2424</v>
       </c>
     </row>
-    <row r="2030" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2030" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="2031" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2031" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2031" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="2032" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2032" s="1" t="s">
         <v>2254</v>
       </c>
@@ -27667,6 +28352,9 @@
       </c>
     </row>
     <row r="2053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2053" t="s">
+        <v>452</v>
+      </c>
       <c r="B2053" s="1" t="s">
         <v>452</v>
       </c>
@@ -27889,242 +28577,344 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="2097" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2097" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2097" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2098" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2098" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2098" s="1" t="s">
         <v>2463</v>
       </c>
     </row>
-    <row r="2099" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2099" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2099" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="2100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2100" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="2101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2101" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2102" s="1" t="s">
         <v>2465</v>
       </c>
     </row>
-    <row r="2103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2103" s="1" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="2104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2104" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2104" s="1" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="2105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2105" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2105" s="1" t="s">
         <v>2466</v>
       </c>
     </row>
-    <row r="2106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2106" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2106" s="1" t="s">
         <v>2467</v>
       </c>
     </row>
-    <row r="2107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2107" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2107" s="1" t="s">
         <v>2468</v>
       </c>
     </row>
-    <row r="2108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2108" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2108" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="2109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2109" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2109" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="2110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2110" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2110" s="1" t="s">
         <v>2483</v>
       </c>
     </row>
-    <row r="2111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2111" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2111" s="1" t="s">
         <v>2472</v>
       </c>
     </row>
-    <row r="2112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2112" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2112" s="1" t="s">
         <v>2473</v>
       </c>
     </row>
-    <row r="2113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2113" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2113" s="1" t="s">
         <v>2474</v>
       </c>
     </row>
-    <row r="2114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2114" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2114" s="1" t="s">
         <v>2471</v>
       </c>
     </row>
-    <row r="2115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2115" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2115" s="1" t="s">
         <v>2475</v>
       </c>
     </row>
-    <row r="2116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2116" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2116" s="1" t="s">
         <v>2476</v>
       </c>
     </row>
-    <row r="2117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2117" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2117" s="1" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="2118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2118" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2118" s="1" t="s">
         <v>2478</v>
       </c>
     </row>
-    <row r="2119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2119" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2119" s="1" t="s">
         <v>2479</v>
       </c>
     </row>
-    <row r="2120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2120" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2120" s="1" t="s">
         <v>2480</v>
       </c>
     </row>
-    <row r="2121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2121" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2121" s="1" t="s">
         <v>2481</v>
       </c>
     </row>
-    <row r="2122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2122" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2122" s="1" t="s">
         <v>2482</v>
       </c>
     </row>
-    <row r="2123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2123" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2123" s="1" t="s">
         <v>2484</v>
       </c>
     </row>
-    <row r="2124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2124" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2124" s="1" t="s">
         <v>2485</v>
       </c>
     </row>
-    <row r="2125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2125" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2125" s="1" t="s">
         <v>2486</v>
       </c>
     </row>
-    <row r="2126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2126" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2126" s="1" t="s">
         <v>2487</v>
       </c>
     </row>
-    <row r="2127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2127" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2127" s="1" t="s">
         <v>2488</v>
       </c>
     </row>
-    <row r="2128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2128" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2128" s="1" t="s">
         <v>2489</v>
       </c>
     </row>
-    <row r="2129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2129" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2129" s="1" t="s">
         <v>2490</v>
       </c>
     </row>
-    <row r="2130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2130" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2130" s="1" t="s">
         <v>2491</v>
       </c>
     </row>
-    <row r="2131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2131" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2131" s="1" t="s">
         <v>2492</v>
       </c>
     </row>
-    <row r="2132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2132" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2132" s="1" t="s">
         <v>2493</v>
       </c>
     </row>
-    <row r="2133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2133" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2133" s="1" t="s">
         <v>2494</v>
       </c>
     </row>
-    <row r="2134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2134" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2134" s="1" t="s">
         <v>2495</v>
       </c>
     </row>
-    <row r="2135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2135" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2135" s="1" t="s">
         <v>2499</v>
       </c>
     </row>
-    <row r="2136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2136" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2136" s="1" t="s">
         <v>2500</v>
       </c>
     </row>
-    <row r="2137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2137" t="s">
+        <v>2889</v>
+      </c>
       <c r="B2137" s="1" t="s">
         <v>2502</v>
       </c>
     </row>
-    <row r="2138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2138" s="1" t="s">
         <v>2503</v>
       </c>
     </row>
-    <row r="2139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2139" s="1" t="s">
         <v>2504</v>
       </c>
     </row>
-    <row r="2140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2140" s="1" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="2141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2141" s="1" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="2142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2142" s="1" t="s">
         <v>2505</v>
       </c>
     </row>
-    <row r="2143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2143" s="1" t="s">
         <v>2507</v>
       </c>
     </row>
-    <row r="2144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2144" s="1" t="s">
         <v>2508</v>
       </c>
@@ -28209,82 +28999,88 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="2161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2161" s="1" t="s">
         <v>2522</v>
       </c>
     </row>
-    <row r="2162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2162" s="1" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="2163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2163" s="1" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="2164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2164" s="1" t="s">
         <v>2525</v>
       </c>
     </row>
-    <row r="2165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2165" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="B2165" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="2166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2166" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="B2166" s="1" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="2167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2167" s="1" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="2168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2168" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="2169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2169" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="2170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2170" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="2171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2171" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="2172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2172" s="1" t="s">
         <v>2527</v>
       </c>
     </row>
-    <row r="2173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2173" s="1" t="s">
         <v>2528</v>
       </c>
     </row>
-    <row r="2174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2174" s="1" t="s">
         <v>2529</v>
       </c>
     </row>
-    <row r="2175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2175" s="1" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="2176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2176" s="1" t="s">
         <v>2531</v>
       </c>
@@ -28323,6 +29119,9 @@
       </c>
     </row>
     <row r="2183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2183" t="s">
+        <v>2928</v>
+      </c>
       <c r="B2183" s="1" t="s">
         <v>415</v>
       </c>
@@ -28333,6 +29132,9 @@
       </c>
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2185" s="1" t="s">
+        <v>501</v>
+      </c>
       <c r="B2185" s="1" t="s">
         <v>501</v>
       </c>
@@ -29015,82 +29817,88 @@
         <v>652</v>
       </c>
     </row>
-    <row r="2321" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2321" s="1" t="s">
         <v>2657</v>
       </c>
     </row>
-    <row r="2322" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2322" s="1" t="s">
         <v>2659</v>
       </c>
     </row>
-    <row r="2323" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2323" s="1" t="s">
         <v>2660</v>
       </c>
     </row>
-    <row r="2324" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2324" s="1" t="s">
         <v>2658</v>
       </c>
     </row>
-    <row r="2325" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2325" s="1" t="s">
         <v>2661</v>
       </c>
     </row>
-    <row r="2326" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2326" s="1" t="s">
         <v>2662</v>
       </c>
     </row>
-    <row r="2327" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2327" t="s">
+        <v>2835</v>
+      </c>
       <c r="B2327" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="2328" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2328" s="1" t="s">
         <v>2663</v>
       </c>
     </row>
-    <row r="2329" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2329" s="1" t="s">
         <v>2664</v>
       </c>
     </row>
-    <row r="2330" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2330" t="s">
+        <v>523</v>
+      </c>
       <c r="B2330" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2331" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2331" s="1" t="s">
         <v>2578</v>
       </c>
     </row>
-    <row r="2332" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2332" s="1" t="s">
         <v>2325</v>
       </c>
     </row>
-    <row r="2333" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2333" s="1" t="s">
         <v>2665</v>
       </c>
     </row>
-    <row r="2334" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2334" s="1" t="s">
         <v>2666</v>
       </c>
     </row>
-    <row r="2335" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2335" s="1" t="s">
         <v>2667</v>
       </c>
     </row>
-    <row r="2336" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2336" s="1" t="s">
         <v>2668</v>
       </c>
@@ -29175,322 +29983,367 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="2353" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2353" s="1" t="s">
         <v>2682</v>
       </c>
     </row>
-    <row r="2354" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2354" s="1" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="2355" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2355" s="1" t="s">
         <v>2684</v>
       </c>
     </row>
-    <row r="2356" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2356" s="1" t="s">
         <v>2685</v>
       </c>
     </row>
-    <row r="2357" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2357" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="2358" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2358" s="1" t="s">
         <v>2686</v>
       </c>
     </row>
-    <row r="2359" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2359" s="1" t="s">
         <v>2687</v>
       </c>
     </row>
-    <row r="2360" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2360" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="2361" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2361" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="2362" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2362" s="1" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="2363" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2363" s="1" t="s">
         <v>2688</v>
       </c>
     </row>
-    <row r="2364" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2364" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="2365" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2365" s="1" t="s">
         <v>2355</v>
       </c>
     </row>
-    <row r="2366" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2366" s="1" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="2367" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2367" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="2368" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2368" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="B2368" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="2369" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2369" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="B2369" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="2370" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2370" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="2371" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2371" s="1" t="s">
         <v>2690</v>
       </c>
     </row>
-    <row r="2372" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2372" s="1" t="s">
         <v>2691</v>
       </c>
     </row>
-    <row r="2373" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2373" s="1" t="s">
         <v>2693</v>
       </c>
     </row>
-    <row r="2374" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2374" s="1" t="s">
         <v>2694</v>
       </c>
     </row>
-    <row r="2375" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2375" s="1" t="s">
         <v>2695</v>
       </c>
     </row>
-    <row r="2376" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2376" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="2377" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2377" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="2378" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2378" s="1" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="2379" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2379" s="1" t="s">
         <v>2697</v>
       </c>
     </row>
-    <row r="2380" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2380" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="2381" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2381" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="2382" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2382" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="2383" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2383" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="2384" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2384" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="2385" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2385" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="2386" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2386" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="2387" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2387" s="1" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="2388" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2388" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2388" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2389" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2389" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2389" s="1" t="s">
         <v>2706</v>
       </c>
     </row>
-    <row r="2390" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2390" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2390" s="1" t="s">
         <v>2707</v>
       </c>
     </row>
-    <row r="2391" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2391" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2391" s="1" t="s">
         <v>2708</v>
       </c>
     </row>
-    <row r="2392" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2392" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2392" s="1" t="s">
         <v>2709</v>
       </c>
     </row>
-    <row r="2393" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2393" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2393" s="1" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="2394" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2394" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2394" s="1" t="s">
         <v>2704</v>
       </c>
     </row>
-    <row r="2395" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2395" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2395" s="1" t="s">
         <v>2711</v>
       </c>
     </row>
-    <row r="2396" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2396" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2396" s="1" t="s">
         <v>2712</v>
       </c>
     </row>
-    <row r="2397" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2397" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2397" s="1" t="s">
         <v>2713</v>
       </c>
     </row>
-    <row r="2398" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2398" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2398" s="1" t="s">
         <v>2714</v>
       </c>
     </row>
-    <row r="2399" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2399" t="s">
+        <v>2866</v>
+      </c>
       <c r="B2399" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="2400" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2400" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2401" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2401" t="s">
+        <v>2952</v>
+      </c>
       <c r="B2401" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="2402" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2402" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="2403" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2403" s="1" t="s">
         <v>2715</v>
       </c>
     </row>
-    <row r="2404" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2404" s="1" t="s">
         <v>2464</v>
       </c>
     </row>
-    <row r="2405" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2405" s="1" t="s">
         <v>2716</v>
       </c>
     </row>
-    <row r="2406" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2406" s="1" t="s">
         <v>2717</v>
       </c>
     </row>
-    <row r="2407" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2407" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="2408" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2408" s="1" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="2409" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2409" s="1" t="s">
         <v>2718</v>
       </c>
     </row>
-    <row r="2410" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2410" s="1" t="s">
         <v>2719</v>
       </c>
     </row>
-    <row r="2411" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2411" s="1" t="s">
         <v>2720</v>
       </c>
     </row>
-    <row r="2412" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2412" s="1" t="s">
         <v>2721</v>
       </c>
     </row>
-    <row r="2413" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2413" s="1" t="s">
         <v>2722</v>
       </c>
     </row>
-    <row r="2414" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2414" s="1" t="s">
         <v>2723</v>
       </c>
     </row>
-    <row r="2415" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2415" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="2416" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2416" s="1" t="s">
         <v>508</v>
       </c>
@@ -29575,82 +30428,85 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="2433" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2433" s="1" t="s">
         <v>2106</v>
       </c>
     </row>
-    <row r="2434" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2434" s="1" t="s">
         <v>2737</v>
       </c>
     </row>
-    <row r="2435" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2435" s="1" t="s">
         <v>2738</v>
       </c>
     </row>
-    <row r="2436" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2436" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="2437" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2437" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="2438" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2438" s="1" t="s">
         <v>2741</v>
       </c>
     </row>
-    <row r="2439" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2439" s="1" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="2440" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2440" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="2441" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2441" s="1" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="2442" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2442" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="2443" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2443" t="s">
+        <v>2856</v>
+      </c>
       <c r="B2443" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="2444" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2444" s="1" t="s">
         <v>2743</v>
       </c>
     </row>
-    <row r="2445" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2445" s="1" t="s">
         <v>2744</v>
       </c>
     </row>
-    <row r="2446" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2446" s="1" t="s">
         <v>2745</v>
       </c>
     </row>
-    <row r="2447" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2447" s="1" t="s">
         <v>2746</v>
       </c>
     </row>
-    <row r="2448" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2448" s="1" t="s">
         <v>2747</v>
       </c>
